--- a/documents/To Do Liste.xlsx
+++ b/documents/To Do Liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna\Desktop\Schule\4BT\Info\Memento Mori\Game\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1833C0-BF1D-46D0-8693-D5D9EB01277B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E701B29-F9C1-45B7-B02E-988DA2511082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{86CE8607-E0E9-4D90-B1CD-7FA30CC86181}"/>
   </bookViews>
@@ -33,37 +33,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Aufgabe</t>
   </si>
   <si>
-    <t>TO DO -Liste</t>
-  </si>
-  <si>
     <t>Priorität*</t>
   </si>
   <si>
     <t>*1 = höchste Priorität (am wichtigsten)</t>
   </si>
   <si>
-    <t>*5 = niedrigste Priorität (am unwichtigsten)</t>
-  </si>
-  <si>
-    <t>Fertigstellung der Grafik</t>
-  </si>
-  <si>
-    <t>Unterschiedliche Gegner implementieren</t>
-  </si>
-  <si>
-    <t>Bugs fixen (beim Eintritt in ein neues Level)</t>
+    <t>Implementation Entwurfsmuster</t>
+  </si>
+  <si>
+    <t>Flussdiagramm</t>
+  </si>
+  <si>
+    <t>Use-Case Diagramm</t>
+  </si>
+  <si>
+    <t>Klassendiagramm</t>
+  </si>
+  <si>
+    <t>Model View Control Pattern</t>
+  </si>
+  <si>
+    <t>Singleton Pattern</t>
+  </si>
+  <si>
+    <t>Diagramme erstellen</t>
+  </si>
+  <si>
+    <t>Leveldesigns</t>
+  </si>
+  <si>
+    <t>Items-Design</t>
+  </si>
+  <si>
+    <t>Design Hauptcharakter</t>
+  </si>
+  <si>
+    <t>Design Gegner</t>
+  </si>
+  <si>
+    <t>Implementation Gegner</t>
+  </si>
+  <si>
+    <t>passive Gegner</t>
+  </si>
+  <si>
+    <t>aktive Gegner</t>
+  </si>
+  <si>
+    <t>Zwischenboss</t>
+  </si>
+  <si>
+    <t>Endgegner</t>
+  </si>
+  <si>
+    <t>Pflichtenheft</t>
+  </si>
+  <si>
+    <t>Mockup GUI</t>
+  </si>
+  <si>
+    <t>Zeitplan</t>
+  </si>
+  <si>
+    <t>Grafik</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Unit-Tests</t>
+  </si>
+  <si>
+    <t>Integrationstests</t>
+  </si>
+  <si>
+    <t>Systemtests</t>
+  </si>
+  <si>
+    <t>Abnahmetests</t>
+  </si>
+  <si>
+    <t>Minimap</t>
+  </si>
+  <si>
+    <t>*4 = niedrigste Priorität (am unwichtigsten)</t>
+  </si>
+  <si>
+    <t>TO DO - Liste</t>
+  </si>
+  <si>
+    <t>Aktivitätsdiagramm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +143,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -88,13 +196,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,55 +607,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72D3D29-BC58-4A19-BF3B-726FEEDCEDFE}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD29"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>7</v>
+      <c r="B25" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
